--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nconley\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B95D77A7-3559-4B24-95AB-CB62ABCEED36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{530B6FC7-3CD4-4378-8C93-CAA937062E79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9518" yWindow="0" windowWidth="9765" windowHeight="10162" xr2:uid="{84D782E0-E5F3-462B-9DC1-C4058B017207}"/>
+    <workbookView xWindow="-83" yWindow="0" windowWidth="9766" windowHeight="10162" xr2:uid="{84D782E0-E5F3-462B-9DC1-C4058B017207}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,24 +36,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>U.S. sieve (1)</t>
+    <t>U.S. sieve</t>
   </si>
   <si>
-    <t>Opening (mm) (2)</t>
+    <t>Opening</t>
   </si>
   <si>
-    <t>Mass retained on Each Sieve (g) (3)</t>
+    <t>Mass of Aggregate Retained</t>
   </si>
   <si>
-    <t>Cumulative Mass retained Above each Sieve (g) (4)</t>
-  </si>
-  <si>
-    <t>Percent Finer (5)</t>
-  </si>
-  <si>
-    <t>Pan</t>
+    <t>Total Mass</t>
   </si>
 </sst>
 </file>
@@ -89,10 +83,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -411,7 +411,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -423,7 +423,7 @@
     <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -436,138 +436,97 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A2" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A2">
-        <v>4</v>
-      </c>
-      <c r="B2">
+      <c r="B2" s="3">
         <v>4.75</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <v>0</v>
       </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>100</v>
+      <c r="D2" s="2">
+        <v>500</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A3">
+      <c r="A3" s="2">
         <v>10</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="3">
         <v>2</v>
       </c>
-      <c r="C3">
-        <v>21.6</v>
-      </c>
-      <c r="D3">
-        <v>21.6</v>
-      </c>
-      <c r="E3">
-        <v>95.2</v>
+      <c r="C3" s="2">
+        <v>40.200000000000003</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A4">
+      <c r="A4" s="2">
         <v>20</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="3">
         <v>0.85</v>
       </c>
-      <c r="C4">
-        <v>49.5</v>
-      </c>
-      <c r="D4">
-        <v>71.099999999999994</v>
-      </c>
-      <c r="E4">
-        <v>84.2</v>
+      <c r="C4" s="2">
+        <v>84.6</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A5">
+      <c r="A5" s="2">
+        <v>30</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="C5" s="2">
+        <v>50.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6" s="2">
         <v>40</v>
       </c>
-      <c r="B5">
-        <v>0.435</v>
-      </c>
-      <c r="C5">
-        <v>102.6</v>
-      </c>
-      <c r="D5">
-        <v>173.7</v>
-      </c>
-      <c r="E5">
-        <v>61.4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A6">
+      <c r="B6" s="3">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="C6" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A7" s="2">
         <v>60</v>
       </c>
-      <c r="B6">
+      <c r="B7" s="3">
         <v>0.25</v>
       </c>
-      <c r="C6">
-        <v>89.1</v>
-      </c>
-      <c r="D6">
-        <v>262.8</v>
-      </c>
-      <c r="E6">
-        <v>41.6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A7">
-        <v>100</v>
-      </c>
-      <c r="B7">
-        <v>0.15</v>
-      </c>
-      <c r="C7">
-        <v>95.6</v>
-      </c>
-      <c r="D7">
-        <v>358.4</v>
-      </c>
-      <c r="E7">
-        <v>20.399999999999999</v>
+      <c r="C7" s="2">
+        <v>106.4</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A8">
+      <c r="A8" s="2">
+        <v>140</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.106</v>
+      </c>
+      <c r="C8" s="2">
+        <v>108.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A9" s="2">
         <v>200</v>
       </c>
-      <c r="B8">
+      <c r="B9" s="3">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="C8">
-        <v>60.4</v>
-      </c>
-      <c r="D8">
-        <v>418.8</v>
-      </c>
-      <c r="E8">
-        <v>6.9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9">
-        <v>31.2</v>
-      </c>
-      <c r="D9">
-        <v>450</v>
+      <c r="C9" s="2">
+        <v>59.4</v>
       </c>
     </row>
   </sheetData>
